--- a/medicine/Enfance/Chansons_pour_tous_les_jours/Chansons_pour_tous_les_jours.xlsx
+++ b/medicine/Enfance/Chansons_pour_tous_les_jours/Chansons_pour_tous_les_jours.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chansons pour tous les jours est un album d'Anne Sylvestre pour les enfants, paru chez EPM en 2000.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paru en 2000[1], c'est le quinzième album de la collection des Fabulettes chez EPM Musique[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paru en 2000, c'est le quinzième album de la collection des Fabulettes chez EPM Musique.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Titres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Toutes les chansons sont écrites et composées par Anne Sylvestre.
 </t>
@@ -573,7 +589,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Production : Anne Sylvestre
 Direction Musicale : François Rauber
@@ -581,7 +599,7 @@
 Prise de son : Thierry Alazard
 Masterisation : Raphaël Jonin
 Dessin : Pef
-Maquette : Bruno Boussard[1]</t>
+Maquette : Bruno Boussard</t>
         </is>
       </c>
     </row>
